--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D412B2-B30C-4A86-83CB-C40340E8AEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA328F37-9C41-4B44-9115-90AE226CA09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{47E6FF51-8B06-4315-B483-B02C1BC8C456}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BFCC9AEA-FBA2-4839-B0D8-029A9ABDB86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC2DF95-0BAE-4698-93AC-AD551188627D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB64A5B-F68F-4E2A-8F2B-BB7D3E0BE86C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>23.804849932004633</v>
+        <v>5.8187293462706435</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/result2_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/Angle/result2_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\Angle\result2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA328F37-9C41-4B44-9115-90AE226CA09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1233185-DADB-4381-9B75-AAF108364E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{BFCC9AEA-FBA2-4839-B0D8-029A9ABDB86A}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{D76872ED-B1D9-4391-85CA-1CDA0BDC21A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB64A5B-F68F-4E2A-8F2B-BB7D3E0BE86C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260B01E5-7CEF-4B34-AE26-16CBD43530AC}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
